--- a/biology/Biochimie/Kynurénine/Kynurénine.xlsx
+++ b/biology/Biochimie/Kynurénine/Kynurénine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kynur%C3%A9nine</t>
+          <t>Kynurénine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La L-kynurénine (énantiomère S) est un métabolite de l'acide aminé tryptophane utilisé dans la synthèse de la niacine.
-La kynurénine est synthétisée par l'enzyme tryptophane dioxygénase qui se retrouve surtout mais pas uniquement dans le foie et l'indole-amine 2,3-dioxygénase qui est produite dans de nombreux tissus à la suite d'une activation du système immunitaire[2].
+La kynurénine est synthétisée par l'enzyme tryptophane dioxygénase qui se retrouve surtout mais pas uniquement dans le foie et l'indole-amine 2,3-dioxygénase qui est produite dans de nombreux tissus à la suite d'une activation du système immunitaire.
 La kynuréninase catabolise la conversion de la L-kynurénine en l'acide anthranilique tandis que la transaminase de kynurénine-oxoglutarate catabolise sa conversion en l'acide kynurénique et la kynurénine 3-hydroxylase en 3-hydroxykynurénine.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kynur%C3%A9nine</t>
+          <t>Kynurénine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La kynurénine et ses métabolites sont impliqués dans de nombreuses fonctions :
-vasodilatation pendant une inflammation[3]  ;
-régulation de la réponse auto-immune[4].</t>
+vasodilatation pendant une inflammation  ;
+régulation de la réponse auto-immune.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kynur%C3%A9nine</t>
+          <t>Kynurénine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +560,17 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des perturbations ont été retrouvées dans de nombreuses pathologies[5] :
-elle a été associée aux tics[6],[7] ;
-certains cancers augmentent la synthèse de kynurénine, ce qui améliore leurs croissances[2] ;
-elle précipiterait l'apparition d'une dépression lors d'une dépression causée par un traitement par interféron[8] ;
-des perturbations de la kynurénine ont été retrouvées dans la schizophrénie[9],[10],[11] ;
-la synthèse de kynurénine est augmentée dans la maladie d'Alzheimer[12]. Ses métabolites sont associés aux troubles cognitifs[13];
-les maladies cardiovasculaires[14] et les symptômes dépressifs chez ces patients[15].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des perturbations ont été retrouvées dans de nombreuses pathologies :
+elle a été associée aux tics, ;
+certains cancers augmentent la synthèse de kynurénine, ce qui améliore leurs croissances ;
+elle précipiterait l'apparition d'une dépression lors d'une dépression causée par un traitement par interféron ;
+des perturbations de la kynurénine ont été retrouvées dans la schizophrénie ;
+la synthèse de kynurénine est augmentée dans la maladie d'Alzheimer. Ses métabolites sont associés aux troubles cognitifs;
+les maladies cardiovasculaires et les symptômes dépressifs chez ces patients.</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kynur%C3%A9nine</t>
+          <t>Kynurénine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les perturbations des voies de synthèse de la kynurénine peuvent être causées par des polymorphismes génétiques, des cytokines ou les deux[16],[17]. La déficience en kynurénine 3-monooxygénase entraîne une accumulation de kynurénine et un shift vers la voie de synthèse du tryptophane vers la formation d'acide kynurénique et d'acide anthranilique[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les perturbations des voies de synthèse de la kynurénine peuvent être causées par des polymorphismes génétiques, des cytokines ou les deux,. La déficience en kynurénine 3-monooxygénase entraîne une accumulation de kynurénine et un shift vers la voie de synthèse du tryptophane vers la formation d'acide kynurénique et d'acide anthranilique.
 </t>
         </is>
       </c>
